--- a/Arduino MIDI-CV Converter 使用例 2 .xlsx
+++ b/Arduino MIDI-CV Converter 使用例 2 .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>デジタル系</t>
     <rPh sb="4" eb="5">
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RCA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Audio</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,14 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.12.27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RCA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6.3φ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,6 +117,37 @@
   </si>
   <si>
     <t>Arduino MIDI-CV Converter テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIDI-THRU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIN5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Audio(Noise)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Audio(KIK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5φ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(未実装)</t>
+    <rPh sb="1" eb="4">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.01.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -280,11 +299,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172130688"/>
-        <c:axId val="172135040"/>
+        <c:axId val="1568430656"/>
+        <c:axId val="1568433376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172130688"/>
+        <c:axId val="1568430656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -326,7 +345,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172135040"/>
+        <c:crossAx val="1568433376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -334,7 +353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172135040"/>
+        <c:axId val="1568433376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -384,7 +403,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172130688"/>
+        <c:crossAx val="1568430656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,7 +1040,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1031,8 +1050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="1028701"/>
-          <a:ext cx="2743200" cy="5486399"/>
+          <a:off x="2400300" y="685801"/>
+          <a:ext cx="2743200" cy="6343649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,7 +1100,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1091,8 +1110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885951" y="1883018"/>
-          <a:ext cx="1371600" cy="4460632"/>
+          <a:off x="2571751" y="1540118"/>
+          <a:ext cx="1371600" cy="5317882"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,14 +1205,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>1847</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1203,8 +1222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5488247" y="4114800"/>
-          <a:ext cx="1543049" cy="342900"/>
+          <a:off x="6343651" y="4286250"/>
+          <a:ext cx="1030546" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1302,13 +1321,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1317,8 +1336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="3600451"/>
-          <a:ext cx="1028700" cy="2571750"/>
+          <a:off x="2743200" y="3257550"/>
+          <a:ext cx="1028700" cy="3428999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1358,26 +1377,24 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>172692</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="34" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4522304" y="2607779"/>
-          <a:ext cx="1739348" cy="1243"/>
+          <a:off x="4972050" y="2743200"/>
+          <a:ext cx="1371600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1736,7 +1753,7 @@
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1189</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1746,8 +1763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="2400299"/>
-          <a:ext cx="1544239" cy="342901"/>
+          <a:off x="6343650" y="2400299"/>
+          <a:ext cx="1029889" cy="685801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,21 +1809,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>1847</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3130826" y="4348370"/>
-          <a:ext cx="3132673" cy="0"/>
+          <a:off x="3771900" y="4457700"/>
+          <a:ext cx="2571750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2306,28 +2321,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>1189</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>328</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3840</xdr:rowOff>
+      <xdr:rowOff>3512</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="3"/>
           <a:endCxn id="66" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832913" y="2562225"/>
-          <a:ext cx="845523" cy="3512"/>
+          <a:off x="7372350" y="2571750"/>
+          <a:ext cx="1706589" cy="3512"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2664,7 +2678,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>1846</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2672,19 +2686,17 @@
       <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6263498" y="4348370"/>
-          <a:ext cx="3476850" cy="0"/>
+          <a:off x="7372350" y="4457700"/>
+          <a:ext cx="4286250" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2778,7 +2790,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2787,8 +2799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3431484" y="2400301"/>
-          <a:ext cx="854766" cy="685800"/>
+          <a:off x="4117284" y="2400301"/>
+          <a:ext cx="854766" cy="685799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2840,22 +2852,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>2484</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="Straight Connector 34"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="3"/>
-          <a:endCxn id="50" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3086100" y="2743200"/>
-          <a:ext cx="345384" cy="1"/>
+          <a:off x="3771900" y="2743200"/>
+          <a:ext cx="342900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2933,27 +2944,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>86968</xdr:colOff>
+      <xdr:colOff>83340</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>139060</xdr:rowOff>
+      <xdr:rowOff>139058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>3628</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="Elbow Connector 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="0"/>
-          <a:endCxn id="119" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6715652" y="-145974"/>
+          <a:off x="7397824" y="-488876"/>
           <a:ext cx="32391" cy="5745960"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3076,6 +3084,194 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 4193667"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9769</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="1200150"/>
+          <a:ext cx="1038469" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>162275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762725" y="6000750"/>
+          <a:ext cx="2580925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>153100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>162275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3753550" y="6515100"/>
+          <a:ext cx="2580925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1846</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7374196" y="4972050"/>
+          <a:ext cx="4284404" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3367,27 +3563,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BT34"/>
+  <dimension ref="B2:BT39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BW37"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:59" x14ac:dyDescent="0.15">
       <c r="AN4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:59" x14ac:dyDescent="0.15">
@@ -3395,90 +3591,96 @@
     </row>
     <row r="6" spans="2:59" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.15">
       <c r="L7" t="s">
         <v>8</v>
       </c>
+      <c r="AE7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="2:59" x14ac:dyDescent="0.15">
       <c r="M8" t="s">
         <v>7</v>
       </c>
+      <c r="AE8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:59" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="AE12" t="s">
+        <v>6</v>
+      </c>
       <c r="AV12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:59" x14ac:dyDescent="0.15">
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
       <c r="AX13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:59" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BF14" s="2"/>
     </row>
     <row r="15" spans="2:59" x14ac:dyDescent="0.15">
-      <c r="AF15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS15" t="s">
+      <c r="AR15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:59" x14ac:dyDescent="0.15">
       <c r="AE16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>15</v>
       </c>
       <c r="AR16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="31:72" x14ac:dyDescent="0.15">
-      <c r="AF17" t="s">
-        <v>6</v>
+      <c r="AE17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>3</v>
       </c>
       <c r="BT17" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="31:72" x14ac:dyDescent="0.15">
-      <c r="AE18" t="s">
-        <v>3</v>
-      </c>
       <c r="AU18" t="s">
         <v>10</v>
       </c>
       <c r="BL18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="31:72" x14ac:dyDescent="0.15">
       <c r="AX20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BL20" t="s">
         <v>3</v>
       </c>
       <c r="BO20" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="31:72" x14ac:dyDescent="0.15">
@@ -3487,7 +3689,7 @@
       </c>
     </row>
     <row r="23" spans="31:72" x14ac:dyDescent="0.15">
-      <c r="AF23" t="s">
+      <c r="AE23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3503,11 +3705,11 @@
       </c>
     </row>
     <row r="26" spans="31:72" x14ac:dyDescent="0.15">
-      <c r="AF26" t="s">
+      <c r="AE26" t="s">
         <v>5</v>
       </c>
-      <c r="AS26" t="s">
-        <v>12</v>
+      <c r="AR26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="31:72" x14ac:dyDescent="0.15">
@@ -3518,41 +3720,78 @@
         <v>3</v>
       </c>
       <c r="AR27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BO27" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="31:72" x14ac:dyDescent="0.15">
-      <c r="AF29" t="s">
+      <c r="AE29" t="s">
         <v>5</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="31:72" x14ac:dyDescent="0.15">
+      <c r="AE30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>25</v>
+      </c>
       <c r="BO30" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="31:72" x14ac:dyDescent="0.15">
+      <c r="AJ31" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="31:72" x14ac:dyDescent="0.15">
-      <c r="AF32" t="s">
+      <c r="AE32" t="s">
         <v>5</v>
       </c>
       <c r="AV32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="48:67" x14ac:dyDescent="0.15">
+    <row r="33" spans="31:67" x14ac:dyDescent="0.15">
+      <c r="AE33" t="s">
+        <v>3</v>
+      </c>
       <c r="AV33" t="s">
         <v>1</v>
       </c>
       <c r="BO33" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="34" spans="48:67" x14ac:dyDescent="0.15">
+    <row r="34" spans="31:67" x14ac:dyDescent="0.15">
       <c r="AV34" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="31:67" x14ac:dyDescent="0.15">
+      <c r="AE35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="31:67" x14ac:dyDescent="0.15">
+      <c r="AE36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="31:67" x14ac:dyDescent="0.15">
+      <c r="AE38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="31:67" x14ac:dyDescent="0.15">
+      <c r="AE39" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
